--- a/PRIME_survey_reponses.xlsx
+++ b/PRIME_survey_reponses.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="510">
   <si>
     <t xml:space="preserve">10. If you would like to provide any additional suggestions or information, please do so here. </t>
   </si>
@@ -220,6 +220,21 @@
     <t xml:space="preserve">I am considering about this topic.</t>
   </si>
   <si>
+    <t xml:space="preserve">Object database, Face database, Social grooming pictures, Conditioned reward stimuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A controlled mix of social and non-social, appetizing, threatening, and neutral close and distant scenes would be one option. I mentioned during the online meeting the work of Liza Bliss-Moreau (UC Davis) who used 300 videos (or 600?) of natural scenes (30 sec each), all rated by ethologists for their 'emotional' content. There is also the more recent work of Winrich Freiwald.  However, the social/emotional content might complicate interpretation and some may want to suggest rather basic and well characterized dynamic visual stimuli used to study properties of the visual system.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vocalizations, different oro-facial movements, faces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">individuals, social interactions, vocalizations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orientation  motion  faces  actions (grasping, etc)  (social) interactions    I'm focusing on vision here as sound would in many cases (at least in our case) be tricky to implement just for this purpose.</t>
+  </si>
+  <si>
     <t xml:space="preserve">2. How would you order these elements based on priority?</t>
   </si>
   <si>
@@ -278,6 +293,21 @@
   </si>
   <si>
     <t xml:space="preserve">N.A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conditioned reward stimuli, Object database, Face database, Social grooming pictures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I would randomly mix them. The analysis could use tags on scenes to dissociate the different contents and analyze functional connectivity during a single scene across scans/animals/labs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Include stimuli where we already have good data on as control, but also those that are still missing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vision, then sound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As above, but open to hypothesis-driven ranking.</t>
   </si>
   <si>
     <t xml:space="preserve">1. What software package(s) do you use for data analysis?</t>
@@ -379,6 +409,30 @@
     <t xml:space="preserve">NHP HCP pipeline (https://github.com/Washington-University/NHPPipelines)  Connectome Workbench  FSL  FreeSurfer</t>
   </si>
   <si>
+    <t xml:space="preserve">FSL, AFNI, ANTs, Elastix, SPM, Conn Toolbox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPM12  Matlab-based scripts developed at MPI-BC  My student Renee Hartig has also used AFNI for coreg to 099 based on Reveley et al. (2016), but we prefer in general our own manual registrations, with a GUI developed by Yusuke Murayma (MPI) and later adapted based on our needs. Renee also probably looked at FreeSurfer and other packages.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSL, wb_command, various python libraries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conn toolbox, preprocessing tools on github.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPM 12, CONN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPM, Matlab and R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dcm2niix  Nipype with ANTS, AFNI, and FSL components  Freesurfer, ITK-SNAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FreeSurfer, Caret, AFNI, FSL, REST, SPM, ANTs, and code from research papers, custom-written code if none is available.</t>
+  </si>
+  <si>
     <t xml:space="preserve">2. What hacks were required to make these packages work for NHP data?</t>
   </si>
   <si>
@@ -472,6 +526,30 @@
     <t xml:space="preserve">No hacks. We (the Van Essen and Hayashi labs in collaboration) use MRI sequences and pipelines in the NHP HCP protocol (Autio et al., BioRxiv 2019).</t>
   </si>
   <si>
+    <t xml:space="preserve">Most hacks involve getting away from standard spaces, adjusting for high resolution data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- adaptation in scales in SPM (e.g., smaller smoothing)  - careful manual co-registration and then normalization with home-made slice-by-slice coreg tools, prepared to work with a standard template and ROI map that I derived from the Paxinos atlas.  - I have also used monkey-specific ROI maps, made manually for each monkey and sometimes for each session in the same monkey (because of different distortion across sessions) (Logothetis et al. 2012 Nature). But now with the careful semi-manual normalization to a standard brain and its ROI map, it is not needed anymore.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No hacks. We use MRI sequences and pipelines in the NHP HCP protocol (Autio et al., BioRxiv 2019).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSL: new implementation for brain extraction (bet), special cleaning for resting-state data (melodic)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the datas were fine.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use a different hrf for fMRI. Nothing special for VBM (besides NHP prior maps and template).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Writing own pipeline with extensive motion correction for fMRI preprocessing.    Freesurfer: Upscaling NHP brain in header and a lot of manual correction. Using the white matter segmentation to manipulate WM/GM contrast for proper pial surface. All steps are documented (and available) in a Jupyter Notebook.    Segmentation is first done automatically based on the NMT template, then manually adjusted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software packages are designed primarily for human analyses. Details related to brain size/cortical thickness, segmentation (MRF), and smoothing are key to successful adaptation for NHP.</t>
+  </si>
+  <si>
     <t xml:space="preserve">3. What are the main problems (preprocessing, analyses) that you run into and that the community needs to solve for NHP data?</t>
   </si>
   <si>
@@ -560,6 +638,27 @@
   </si>
   <si>
     <t xml:space="preserve">Brain extraction and segmentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preprocessing (when data quality is good) is straight forward in my opinion. One of the main issues with</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nothing really different from humans, but I guess that the distortion in the functional scans will  be varying across labs/scanners. This is why a VERY careful co reg and then normalization will be KEY to avoid creating false variability. We would need to make SURE also to all have the exact same FOV/slice orientation (or use different orientations and see if it affects connectivity), to facilitate the final normalization. This can be done by using AC-PC or Frankfurt zero plans.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hidden defaults im conventional pre-processing tools, different data storage conventions/format across groups, agree on reference spaces in volume and surface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Codes for standard preprocessing steps not published</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automatic brain extraction and tissue segmentation still sub-optimal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motion correction. (also body movement artifacts)  Better automated segmentation/surface generation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skull stripping for rhesus monkeys is a major issue for automatic routines such as FSL BET and AFNI 3dSkullStrip (which uses BET) because they rely on smoothing. These issues interfere with the quality of surface-based methods and alignment using FLIRT or AFNI/ANTs.</t>
   </si>
   <si>
     <t xml:space="preserve">4. Do you rely primarily on volume or surface-based approaches for inter-subject registration? Is there a particular reason as to why?</t>
@@ -655,6 +754,30 @@
     <t xml:space="preserve">Surface-based for the cortex; CIFTI grayordinates for cortical vertices  + subcortical gray matter voxels; CIFTI whiteordinates for white matter voxels. We consider these methods to be substantially more accurate.</t>
   </si>
   <si>
+    <t xml:space="preserve">Volume only. Surface based approaches have some utility in the sensory domain but do not scale well to the analysis non topographically organized cortex. Additionally surface based approaches are not very usable for subcortical structures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume because I care about sub-cortex. It also allows better normalization/registration ... and part of the success of the current effort will be to have optimal inter-subject registration to a standard scan.    In fact, together with George Paxinos and Michael Petrides, we are currently revising the macaque brain atlas for its 4th edition, and we will propose a comprehensive template with cortical and subcortical ROIs, and with a grouping of small ROIs, too. We will also propose a step-by-step protocol to semi-manually coregister individual brains to the template.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface-based for the cortex; CIFTI grayordinates for cortex  + subcortical gray matter; CIFTI whiteordinatess for white matter. These methods are more accurate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Both</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I rely on volume based, as it provides better knowledge about various network than surface based.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume, as implemented in SPM.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n/a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume-based registration. Surface methods are derived from volume which may result in accumulated errors.</t>
+  </si>
+  <si>
     <t xml:space="preserve">1. What type of scanner and head coil(s) does your work rely on? Are there any specific advantages?</t>
   </si>
   <si>
@@ -748,6 +871,27 @@
     <t xml:space="preserve">Macaque: 24-ch coil multi-array RF coil  Marmoset:16-ch multi-array RF coil with 2-ch multi-channel Tx coils   Both on a 3T Siemens Prisma MRI scanner</t>
   </si>
   <si>
+    <t xml:space="preserve">10.5 T Siemens. Custom head coils</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Until 2018, Bruker 7T and 4.7T (vertical), with custom-made quadrature and in a few cases phased-array fixed on individual 3D-printed helmets developed back then by David Balla and Helmut Merkel at MPI-BC.  Soon, 3T Prisma. I am interested in using implanted coils after seeing the highly reproducible results of Wim Vanduffel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macaque: 24-ch coil multi-array RF coil, Marmoset:16-ch multi-array RF coil with 2-ch multi-channel Tx coils on 3T Siemens Prisma MRI scanner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siemens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7 T actively shielded vertical MRI scanner (Bruker Biospec 47/60 VAS) equipped with an actively shielded gradient system (Bruker GA-38S) of 38 cm innerbore diameter (Bruker BioSpin, Ettlingen, Germany);  8-channel receiving surface phased-array coil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philips Achieva 3T  Custom-built 8-channel head-coil (KU Leuven / MGH design)  Advantage: Coils are mounted on the chair with flexible arms for optimized positioning.  Disadvantage: We need an extensive chain of connections to hook up the coils to the scanner (coils - preamp - adapter plus - research connector unit - scanner) which can make debugging issues difficult.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siemens Allegra 3T with custom designed coil.</t>
+  </si>
+  <si>
     <t xml:space="preserve">2. What image sequence types do you obtain in all studies? (e.g., T1W, T2W, dMRI, fMRI, field map); for each modality, what spatial resolution and (if used) multi-band factor?</t>
   </si>
   <si>
@@ -838,6 +982,27 @@
     <t xml:space="preserve">Macaque:   T1w: 0.5mm  T2w: 0.5mm  dMRI: 0.9mm (MBF=2, iPAT=2)  fMRI:1.25mm (MBF=5)  Spin-echo type B0 Field Map    Marmoset:  T1w: 0.36mm  T2w: 0.36mm  dMRI:0.7-0.8mm (MBF=2, iPAT=2)  fMRI:0.8-1.0mm (MBF=2)  Spin-echo type B0 Field Map</t>
   </si>
   <si>
+    <t xml:space="preserve">T1W 0.5 mm isotropic  T2W 0.5 mm isotropic  fMRI 0.75 mm isotropic, MB2  B1 1 mm isotropic  B0 1 mm isotropic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- GE-EPI, 1x1 mm2 in-plane res., TR/TE 200/20 ms, 20 to 25 axial slices with quadrature coil.  - GRAPPA-accelarated parallel imaging, 0.85x0.85 mm2, TR 1 sec, 18 to 20 axial slices with helmet.  - T1W MDEFT  - T2W RARE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1w, dMRI, MPM, 1.5-2 mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMRI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1W and T2W (0.8 mm isotropic)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1W  -   0.6 mm iso  T2W  -   0.6 mm iso  DWI	  -   1.0 mm iso  fMRI  -   1.25 mm iso, SENSE factor 2, no multi-band  B0      -   1.25 mm iso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1W, 0.6mm^3  fMRI, 1.6mm^3, TE=0.03, TR=2s, Flip Angle=79 degree, (sequence: ep2d_bold_64_HF)</t>
+  </si>
+  <si>
     <t xml:space="preserve">3. Are you using MION or other iron-based contrast agents? If so, what specific agent and dose?</t>
   </si>
   <si>
@@ -905,6 +1070,15 @@
   </si>
   <si>
     <t xml:space="preserve">MION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not yet but will very likely do so at 3T.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not at the moment. BOLD works reasonably well for us, but we do consider MION for certain studies.</t>
   </si>
   <si>
     <t xml:space="preserve">4. If you use anesthesia, what specific type and levels do you use?</t>
@@ -985,6 +1159,21 @@
     <t xml:space="preserve">Dexmedetmidine 4-6microgram/kg/hr + 0.5-0.6% isoflurane in macaque and marmoset</t>
   </si>
   <si>
+    <t xml:space="preserve">Isoflurane, 1% for anesthetized scans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remifentanil (1-3 µg/kg/min, analgesic and anesthetic)  mivacurium chloride (5-7 mg/kg/h, muscle relaxant)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awake imaging.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generally, we scan awake. For 'arrival' or 'localization' scans in non-MRI dedicated animals we use a mixture of Ketamine (0.07 ml/kg, at 100 mg/ml) and Medetomidine (0.1 ml/kg, at 1 mg/ml)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isoflurane (0.5-2.0%)</t>
+  </si>
+  <si>
     <t xml:space="preserve">5. What protocols have you applied to do awake imaging (e.g., Do you obtain eye-tracking in the scanner? What physiologic measures?)?</t>
   </si>
   <si>
@@ -1057,6 +1246,18 @@
     <t xml:space="preserve">eye-tracking   reward  face-oriented camera  pupil diameter   end tidal CO2 collection possible during sedated scans</t>
   </si>
   <si>
+    <t xml:space="preserve">Eye Tracking, movement,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural scene movie clips, with eye tracking  Taste  Vagus nerve stim  Intracerebral stim  Visual flicker  Resting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eye-tracking data for fMRI.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We routinely use:  - Eye-tracking  - Tracking of hand position &amp; 2 levers with optic fibers (4 sets in total)</t>
+  </si>
+  <si>
     <t xml:space="preserve">6. What protocols are you using to optimize various acquisition parameters? Or rather, what are the tools and parameters you use to assess the quality of your acquisition?</t>
   </si>
   <si>
@@ -1120,6 +1321,21 @@
     <t xml:space="preserve">NHP HCP protocols using species-specific spatial resolution based on cortical thickness. Temporal resolution of fMRI, comparable with human high-quality data like HCP</t>
   </si>
   <si>
+    <t xml:space="preserve">tSNR, cSNR, distortions, beta maps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We remove scans with major motion artifact, rather than correcting them. we check each scan for spikes, ghost artifact.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNR and CNR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNR, tSNR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automatic anatomical QA based on contrast between foreground/background/WM/GM/CSF.</t>
+  </si>
+  <si>
     <t xml:space="preserve">7. What acquisition standards do you feel are required for surface-based or volume based processing and registration?</t>
   </si>
   <si>
@@ -1163,6 +1379,21 @@
   </si>
   <si>
     <t xml:space="preserve">High resolution, high homogeneity, high quality images for structural MRI  High resolution, high temporal resolution images of fMRI  High resolution, high angular resolution, high b-value diffusion weighting of dMRI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depends on the scientific question and the tradeoffs one is willing to make. Ideally 1 mm isotropic or higher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Exact same landmarks to align the slice and FOV of the acquisition (e.g., AC-PQ.  - Careful, if needed semi-manual, coreg, then normalization onto a standard brain with its  complete ROI map.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resolution &lt; 1 mm isotropic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good GM/WM contrast.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isometric voxel size is required for surface based processing, but might be less critical for volume-based processing</t>
   </si>
   <si>
     <t xml:space="preserve">8. What do you use for distortion correction and acquisition for Mion vs BOLD sequences?</t>
@@ -1222,6 +1453,18 @@
     <t xml:space="preserve">Spin-echo type B0 fieldmapping</t>
   </si>
   <si>
+    <t xml:space="preserve">FSL topup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">field map, topup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We currently register to an unwarped reference (Bo-based) but also acquire TOPUP scans and fieldmaps with every session.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTs N4 B0 distortion correction</t>
+  </si>
+  <si>
     <t xml:space="preserve">9. What would you like to see as a 'standard' for acquisition sequences across community and PRIME contributors?</t>
   </si>
   <si>
@@ -1277,6 +1520,15 @@
   </si>
   <si>
     <t xml:space="preserve">Investigators should aim for as high-quality, high resolution images as possible, but these depend on the availability of sequences (e.g. multi-band EPI sequence) and multi-array coils used on or with the MRI scanner as is done in HCP-style projects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- standard brain orientation for an easier registration to a common anatomical/ROI map  - same ROI map / standard template with map across labs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1W and T2W for structural MRI (rather than T1W only)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not a strong opinion about this, but some level of standardization might definitely be nice.</t>
   </si>
   <si>
     <t xml:space="preserve">10. If you would like to provide any additional suggestions or information, please do so here.</t>
@@ -1917,7 +2169,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>269</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2">
@@ -1925,7 +2177,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>270</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3">
@@ -1933,7 +2185,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4">
@@ -1941,7 +2193,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>184</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5">
@@ -1957,7 +2209,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>271</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7">
@@ -1965,7 +2217,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>272</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8">
@@ -1981,7 +2233,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10">
@@ -1989,7 +2241,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>273</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11">
@@ -2027,7 +2279,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>274</v>
+        <v>329</v>
       </c>
     </row>
     <row r="16">
@@ -2035,7 +2287,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17">
@@ -2043,7 +2295,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>275</v>
+        <v>330</v>
       </c>
     </row>
     <row r="18">
@@ -2051,7 +2303,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19">
@@ -2059,7 +2311,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>276</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20">
@@ -2067,7 +2319,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>277</v>
+        <v>332</v>
       </c>
     </row>
     <row r="21">
@@ -2075,7 +2327,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>278</v>
+        <v>333</v>
       </c>
     </row>
     <row r="22">
@@ -2083,7 +2335,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>279</v>
+        <v>334</v>
       </c>
     </row>
     <row r="23">
@@ -2091,7 +2343,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>280</v>
+        <v>335</v>
       </c>
     </row>
     <row r="24">
@@ -2099,7 +2351,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25">
@@ -2107,7 +2359,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
     </row>
     <row r="26">
@@ -2129,7 +2381,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>282</v>
+        <v>337</v>
       </c>
     </row>
     <row r="29">
@@ -2137,7 +2389,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>283</v>
+        <v>338</v>
       </c>
     </row>
     <row r="30">
@@ -2145,7 +2397,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>284</v>
+        <v>339</v>
       </c>
     </row>
     <row r="31">
@@ -2153,7 +2405,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>285</v>
+        <v>340</v>
       </c>
     </row>
     <row r="32">
@@ -2161,7 +2413,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>286</v>
+        <v>341</v>
       </c>
     </row>
     <row r="33">
@@ -2169,7 +2421,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>287</v>
+        <v>342</v>
       </c>
     </row>
     <row r="34">
@@ -2177,7 +2429,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>288</v>
+        <v>343</v>
       </c>
     </row>
     <row r="35">
@@ -2185,7 +2437,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>289</v>
+        <v>344</v>
       </c>
     </row>
     <row r="36">
@@ -2193,7 +2445,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>290</v>
+        <v>345</v>
       </c>
     </row>
     <row r="37">
@@ -2201,7 +2453,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>291</v>
+        <v>346</v>
       </c>
     </row>
     <row r="38">
@@ -2209,38 +2461,84 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39">
-      <c r="B39" s="5"/>
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="40">
-      <c r="B40" s="5"/>
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="41">
-      <c r="B41" s="5"/>
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="42">
-      <c r="B42" s="5"/>
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="43">
-      <c r="B43" s="5"/>
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
       <c r="B44" s="5"/>
     </row>
     <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
       <c r="B45" s="5"/>
     </row>
     <row r="46">
-      <c r="B46" s="5"/>
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="47">
-      <c r="B47" s="5"/>
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="48">
-      <c r="B48" s="5"/>
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="49">
       <c r="B49" s="5"/>
@@ -5120,7 +5418,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>292</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2">
@@ -5128,7 +5426,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>270</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3">
@@ -5136,7 +5434,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>293</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4">
@@ -5144,7 +5442,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>294</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5">
@@ -5160,7 +5458,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>295</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7">
@@ -5168,7 +5466,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>296</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8">
@@ -5184,7 +5482,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>297</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10">
@@ -5192,7 +5490,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>298</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11">
@@ -5200,7 +5498,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>296</v>
+        <v>354</v>
       </c>
     </row>
     <row r="12">
@@ -5230,7 +5528,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>299</v>
+        <v>357</v>
       </c>
     </row>
     <row r="16">
@@ -5238,7 +5536,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>300</v>
+        <v>358</v>
       </c>
     </row>
     <row r="17">
@@ -5246,7 +5544,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>301</v>
+        <v>359</v>
       </c>
     </row>
     <row r="18">
@@ -5254,7 +5552,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>302</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19">
@@ -5262,7 +5560,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>303</v>
+        <v>361</v>
       </c>
     </row>
     <row r="20">
@@ -5270,7 +5568,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>304</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21">
@@ -5284,7 +5582,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>305</v>
+        <v>363</v>
       </c>
     </row>
     <row r="23">
@@ -5292,7 +5590,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>306</v>
+        <v>364</v>
       </c>
     </row>
     <row r="24">
@@ -5300,7 +5598,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>307</v>
+        <v>365</v>
       </c>
     </row>
     <row r="25">
@@ -5308,7 +5606,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>308</v>
+        <v>366</v>
       </c>
     </row>
     <row r="26">
@@ -5330,7 +5628,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>309</v>
+        <v>367</v>
       </c>
     </row>
     <row r="29">
@@ -5338,7 +5636,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>310</v>
+        <v>368</v>
       </c>
     </row>
     <row r="30">
@@ -5346,7 +5644,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>311</v>
+        <v>369</v>
       </c>
     </row>
     <row r="31">
@@ -5354,7 +5652,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>312</v>
+        <v>370</v>
       </c>
     </row>
     <row r="32">
@@ -5362,7 +5660,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>313</v>
+        <v>371</v>
       </c>
     </row>
     <row r="33">
@@ -5370,7 +5668,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>314</v>
+        <v>372</v>
       </c>
     </row>
     <row r="34">
@@ -5378,7 +5676,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>315</v>
+        <v>373</v>
       </c>
     </row>
     <row r="35">
@@ -5392,7 +5690,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>316</v>
+        <v>374</v>
       </c>
     </row>
     <row r="37">
@@ -5400,7 +5698,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>317</v>
+        <v>375</v>
       </c>
     </row>
     <row r="38">
@@ -5408,38 +5706,84 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39">
-      <c r="B39" s="5"/>
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="40">
-      <c r="B40" s="5"/>
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="41">
-      <c r="B41" s="5"/>
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="42">
-      <c r="B42" s="5"/>
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="43">
-      <c r="B43" s="5"/>
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
       <c r="B44" s="5"/>
     </row>
     <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
       <c r="B45" s="5"/>
     </row>
     <row r="46">
-      <c r="B46" s="5"/>
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="47">
-      <c r="B47" s="5"/>
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="48">
-      <c r="B48" s="5"/>
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="49">
       <c r="B49" s="5"/>
@@ -8319,7 +8663,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>318</v>
+        <v>381</v>
       </c>
     </row>
     <row r="2">
@@ -8327,7 +8671,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>270</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3">
@@ -8335,7 +8679,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>319</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4">
@@ -8343,7 +8687,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>320</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5">
@@ -8359,7 +8703,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>321</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7">
@@ -8367,7 +8711,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>322</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8">
@@ -8383,7 +8727,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10">
@@ -8391,7 +8735,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>323</v>
+        <v>386</v>
       </c>
     </row>
     <row r="11">
@@ -8429,7 +8773,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>324</v>
+        <v>387</v>
       </c>
     </row>
     <row r="16">
@@ -8437,7 +8781,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>325</v>
+        <v>388</v>
       </c>
     </row>
     <row r="17">
@@ -8445,7 +8789,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>326</v>
+        <v>389</v>
       </c>
     </row>
     <row r="18">
@@ -8461,7 +8805,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>327</v>
+        <v>390</v>
       </c>
     </row>
     <row r="20">
@@ -8469,7 +8813,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>328</v>
+        <v>391</v>
       </c>
     </row>
     <row r="21">
@@ -8483,7 +8827,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>329</v>
+        <v>392</v>
       </c>
     </row>
     <row r="23">
@@ -8491,7 +8835,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>330</v>
+        <v>393</v>
       </c>
     </row>
     <row r="24">
@@ -8499,7 +8843,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>331</v>
+        <v>394</v>
       </c>
     </row>
     <row r="25">
@@ -8507,7 +8851,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>332</v>
+        <v>395</v>
       </c>
     </row>
     <row r="26">
@@ -8521,7 +8865,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>333</v>
+        <v>396</v>
       </c>
     </row>
     <row r="28">
@@ -8529,7 +8873,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>334</v>
+        <v>397</v>
       </c>
     </row>
     <row r="29">
@@ -8537,7 +8881,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>335</v>
+        <v>398</v>
       </c>
     </row>
     <row r="30">
@@ -8545,7 +8889,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>336</v>
+        <v>399</v>
       </c>
     </row>
     <row r="31">
@@ -8553,7 +8897,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>337</v>
+        <v>400</v>
       </c>
     </row>
     <row r="32">
@@ -8561,7 +8905,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>338</v>
+        <v>401</v>
       </c>
     </row>
     <row r="33">
@@ -8569,7 +8913,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>339</v>
+        <v>402</v>
       </c>
     </row>
     <row r="34">
@@ -8577,7 +8921,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>340</v>
+        <v>403</v>
       </c>
     </row>
     <row r="35">
@@ -8591,7 +8935,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>341</v>
+        <v>404</v>
       </c>
     </row>
     <row r="37">
@@ -8599,7 +8943,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>330</v>
+        <v>393</v>
       </c>
     </row>
     <row r="38">
@@ -8607,38 +8951,84 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39">
-      <c r="B39" s="5"/>
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="40">
-      <c r="B40" s="5"/>
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="41">
-      <c r="B41" s="5"/>
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="42">
-      <c r="B42" s="5"/>
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="43">
-      <c r="B43" s="5"/>
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
       <c r="B44" s="5"/>
     </row>
     <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
       <c r="B45" s="5"/>
     </row>
     <row r="46">
-      <c r="B46" s="5"/>
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="47">
-      <c r="B47" s="5"/>
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="48">
-      <c r="B48" s="5"/>
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="49">
       <c r="B49" s="5"/>
@@ -11518,7 +11908,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>342</v>
+        <v>409</v>
       </c>
     </row>
     <row r="2">
@@ -11526,7 +11916,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>270</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3">
@@ -11534,7 +11924,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>343</v>
+        <v>410</v>
       </c>
     </row>
     <row r="4">
@@ -11542,7 +11932,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>344</v>
+        <v>411</v>
       </c>
     </row>
     <row r="5">
@@ -11558,7 +11948,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7">
@@ -11566,7 +11956,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>345</v>
+        <v>412</v>
       </c>
     </row>
     <row r="8">
@@ -11574,7 +11964,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>346</v>
+        <v>413</v>
       </c>
     </row>
     <row r="9">
@@ -11582,7 +11972,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>347</v>
+        <v>414</v>
       </c>
     </row>
     <row r="10">
@@ -11598,7 +11988,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>345</v>
+        <v>412</v>
       </c>
     </row>
     <row r="12">
@@ -11628,7 +12018,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>348</v>
+        <v>415</v>
       </c>
     </row>
     <row r="16">
@@ -11636,7 +12026,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>349</v>
+        <v>416</v>
       </c>
     </row>
     <row r="17">
@@ -11656,7 +12046,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>350</v>
+        <v>417</v>
       </c>
     </row>
     <row r="20">
@@ -11664,7 +12054,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>351</v>
+        <v>418</v>
       </c>
     </row>
     <row r="21">
@@ -11672,7 +12062,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>352</v>
+        <v>419</v>
       </c>
     </row>
     <row r="22">
@@ -11680,7 +12070,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>353</v>
+        <v>420</v>
       </c>
     </row>
     <row r="23">
@@ -11688,7 +12078,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>354</v>
+        <v>421</v>
       </c>
     </row>
     <row r="24">
@@ -11702,7 +12092,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>355</v>
+        <v>422</v>
       </c>
     </row>
     <row r="26">
@@ -11716,7 +12106,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>356</v>
+        <v>423</v>
       </c>
     </row>
     <row r="28">
@@ -11724,7 +12114,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29">
@@ -11732,7 +12122,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>335</v>
+        <v>398</v>
       </c>
     </row>
     <row r="30">
@@ -11740,7 +12130,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>357</v>
+        <v>424</v>
       </c>
     </row>
     <row r="31">
@@ -11754,7 +12144,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>358</v>
+        <v>425</v>
       </c>
     </row>
     <row r="33">
@@ -11768,7 +12158,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>359</v>
+        <v>426</v>
       </c>
     </row>
     <row r="35">
@@ -11776,7 +12166,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>360</v>
+        <v>427</v>
       </c>
     </row>
     <row r="36">
@@ -11784,7 +12174,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>361</v>
+        <v>428</v>
       </c>
     </row>
     <row r="37">
@@ -11792,7 +12182,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>362</v>
+        <v>429</v>
       </c>
     </row>
     <row r="38">
@@ -11800,38 +12190,84 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39">
-      <c r="B39" s="5"/>
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="40">
-      <c r="B40" s="5"/>
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="41">
-      <c r="B41" s="5"/>
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="42">
-      <c r="B42" s="5"/>
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="43">
-      <c r="B43" s="5"/>
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
       <c r="B44" s="5"/>
     </row>
     <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
       <c r="B45" s="5"/>
     </row>
     <row r="46">
-      <c r="B46" s="5"/>
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="47">
-      <c r="B47" s="5"/>
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="48">
-      <c r="B48" s="5"/>
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="49">
       <c r="B49" s="5"/>
@@ -14711,7 +15147,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>363</v>
+        <v>435</v>
       </c>
     </row>
     <row r="2">
@@ -14719,7 +15155,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>270</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3">
@@ -14747,7 +15183,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7">
@@ -14755,7 +15191,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>364</v>
+        <v>436</v>
       </c>
     </row>
     <row r="8">
@@ -14763,7 +15199,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>365</v>
+        <v>437</v>
       </c>
     </row>
     <row r="9">
@@ -14771,7 +15207,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10">
@@ -14779,7 +15215,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>366</v>
+        <v>438</v>
       </c>
     </row>
     <row r="11">
@@ -14787,7 +15223,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>367</v>
+        <v>439</v>
       </c>
     </row>
     <row r="12">
@@ -14803,7 +15239,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>368</v>
+        <v>440</v>
       </c>
     </row>
     <row r="14">
@@ -14831,7 +15267,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>369</v>
+        <v>441</v>
       </c>
     </row>
     <row r="18">
@@ -14845,7 +15281,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>370</v>
+        <v>442</v>
       </c>
     </row>
     <row r="20">
@@ -14853,7 +15289,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>371</v>
+        <v>443</v>
       </c>
     </row>
     <row r="21">
@@ -14867,7 +15303,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>372</v>
+        <v>444</v>
       </c>
     </row>
     <row r="23">
@@ -14887,7 +15323,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>373</v>
+        <v>445</v>
       </c>
     </row>
     <row r="26">
@@ -14909,7 +15345,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>374</v>
+        <v>446</v>
       </c>
     </row>
     <row r="29">
@@ -14917,7 +15353,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>375</v>
+        <v>447</v>
       </c>
     </row>
     <row r="30">
@@ -14965,7 +15401,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>376</v>
+        <v>448</v>
       </c>
     </row>
     <row r="37">
@@ -14973,7 +15409,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>377</v>
+        <v>449</v>
       </c>
     </row>
     <row r="38">
@@ -14981,38 +15417,84 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39">
-      <c r="B39" s="5"/>
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="40">
-      <c r="B40" s="5"/>
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="41">
-      <c r="B41" s="5"/>
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="42">
-      <c r="B42" s="5"/>
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="43">
-      <c r="B43" s="5"/>
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
       <c r="B44" s="5"/>
     </row>
     <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
       <c r="B45" s="5"/>
     </row>
     <row r="46">
-      <c r="B46" s="5"/>
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="47">
-      <c r="B47" s="5"/>
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="48">
-      <c r="B48" s="5"/>
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="49">
       <c r="B49" s="5"/>
@@ -17892,7 +18374,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>378</v>
+        <v>455</v>
       </c>
     </row>
     <row r="2">
@@ -17900,7 +18382,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>270</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3">
@@ -17908,7 +18390,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>379</v>
+        <v>456</v>
       </c>
     </row>
     <row r="4">
@@ -17930,7 +18412,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7">
@@ -17938,7 +18420,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>380</v>
+        <v>457</v>
       </c>
     </row>
     <row r="8">
@@ -17946,7 +18428,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>381</v>
+        <v>458</v>
       </c>
     </row>
     <row r="9">
@@ -17954,7 +18436,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10">
@@ -17962,7 +18444,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>382</v>
+        <v>459</v>
       </c>
     </row>
     <row r="11">
@@ -18016,7 +18498,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>383</v>
+        <v>460</v>
       </c>
     </row>
     <row r="18">
@@ -18030,7 +18512,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>384</v>
+        <v>461</v>
       </c>
     </row>
     <row r="20">
@@ -18038,7 +18520,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>385</v>
+        <v>462</v>
       </c>
     </row>
     <row r="21">
@@ -18052,7 +18534,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>386</v>
+        <v>463</v>
       </c>
     </row>
     <row r="23">
@@ -18066,7 +18548,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>387</v>
+        <v>464</v>
       </c>
     </row>
     <row r="25">
@@ -18074,7 +18556,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>388</v>
+        <v>465</v>
       </c>
     </row>
     <row r="26">
@@ -18088,7 +18570,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>389</v>
+        <v>466</v>
       </c>
     </row>
     <row r="28">
@@ -18096,7 +18578,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29">
@@ -18104,7 +18586,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>335</v>
+        <v>398</v>
       </c>
     </row>
     <row r="30">
@@ -18112,7 +18594,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>390</v>
+        <v>467</v>
       </c>
     </row>
     <row r="31">
@@ -18126,7 +18608,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>391</v>
+        <v>468</v>
       </c>
     </row>
     <row r="33">
@@ -18134,7 +18616,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>392</v>
+        <v>469</v>
       </c>
     </row>
     <row r="34">
@@ -18142,7 +18624,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>393</v>
+        <v>470</v>
       </c>
     </row>
     <row r="35">
@@ -18150,7 +18632,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>394</v>
+        <v>471</v>
       </c>
     </row>
     <row r="36">
@@ -18158,7 +18640,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>395</v>
+        <v>472</v>
       </c>
     </row>
     <row r="37">
@@ -18166,7 +18648,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>396</v>
+        <v>473</v>
       </c>
     </row>
     <row r="38">
@@ -18174,38 +18656,82 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39">
-      <c r="B39" s="5"/>
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="40">
-      <c r="B40" s="5"/>
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="41">
-      <c r="B41" s="5"/>
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="42">
-      <c r="B42" s="5"/>
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="43">
-      <c r="B43" s="5"/>
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
       <c r="B44" s="5"/>
     </row>
     <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
       <c r="B45" s="5"/>
     </row>
     <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
       <c r="B46" s="5"/>
     </row>
     <row r="47">
-      <c r="B47" s="5"/>
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="48">
-      <c r="B48" s="5"/>
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="49">
       <c r="B49" s="5"/>
@@ -21085,7 +21611,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>397</v>
+        <v>478</v>
       </c>
     </row>
     <row r="2">
@@ -21093,7 +21619,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>398</v>
+        <v>479</v>
       </c>
     </row>
     <row r="3">
@@ -21121,7 +21647,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7">
@@ -21129,7 +21655,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>399</v>
+        <v>480</v>
       </c>
     </row>
     <row r="8">
@@ -21137,7 +21663,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>400</v>
+        <v>481</v>
       </c>
     </row>
     <row r="9">
@@ -21145,7 +21671,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>401</v>
+        <v>482</v>
       </c>
     </row>
     <row r="10">
@@ -21159,7 +21685,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>402</v>
+        <v>483</v>
       </c>
     </row>
     <row r="12">
@@ -21175,7 +21701,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>403</v>
+        <v>484</v>
       </c>
     </row>
     <row r="14">
@@ -21197,7 +21723,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>404</v>
+        <v>485</v>
       </c>
     </row>
     <row r="17">
@@ -21205,7 +21731,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>405</v>
+        <v>486</v>
       </c>
     </row>
     <row r="18">
@@ -21219,7 +21745,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>406</v>
+        <v>487</v>
       </c>
     </row>
     <row r="20">
@@ -21227,7 +21753,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>407</v>
+        <v>488</v>
       </c>
     </row>
     <row r="21">
@@ -21235,7 +21761,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>408</v>
+        <v>489</v>
       </c>
     </row>
     <row r="22">
@@ -21243,7 +21769,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>409</v>
+        <v>490</v>
       </c>
     </row>
     <row r="23">
@@ -21251,7 +21777,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>410</v>
+        <v>491</v>
       </c>
     </row>
     <row r="24">
@@ -21265,7 +21791,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>411</v>
+        <v>492</v>
       </c>
     </row>
     <row r="26">
@@ -21287,7 +21813,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29">
@@ -21295,7 +21821,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30">
@@ -21303,7 +21829,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>412</v>
+        <v>493</v>
       </c>
     </row>
     <row r="31">
@@ -21325,7 +21851,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>413</v>
+        <v>494</v>
       </c>
     </row>
     <row r="34">
@@ -21333,7 +21859,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>414</v>
+        <v>495</v>
       </c>
     </row>
     <row r="35">
@@ -21353,7 +21879,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>415</v>
+        <v>496</v>
       </c>
     </row>
     <row r="38">
@@ -21361,38 +21887,82 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
       <c r="B39" s="5"/>
     </row>
     <row r="40">
-      <c r="B40" s="5"/>
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="41">
-      <c r="B41" s="5"/>
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="42">
-      <c r="B42" s="5"/>
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="43">
-      <c r="B43" s="5"/>
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
       <c r="B44" s="5"/>
     </row>
     <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
       <c r="B45" s="5"/>
     </row>
     <row r="46">
-      <c r="B46" s="5"/>
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="47">
-      <c r="B47" s="5"/>
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="48">
-      <c r="B48" s="5"/>
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="49">
       <c r="B49" s="5"/>
@@ -24272,7 +24842,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>416</v>
+        <v>500</v>
       </c>
     </row>
     <row r="2">
@@ -24280,7 +24850,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>417</v>
+        <v>501</v>
       </c>
     </row>
     <row r="3">
@@ -24294,7 +24864,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>418</v>
+        <v>502</v>
       </c>
     </row>
     <row r="5">
@@ -24310,7 +24880,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7">
@@ -24332,7 +24902,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>419</v>
+        <v>503</v>
       </c>
     </row>
     <row r="10">
@@ -24412,7 +24982,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>420</v>
+        <v>504</v>
       </c>
     </row>
     <row r="22">
@@ -24420,7 +24990,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>421</v>
+        <v>505</v>
       </c>
     </row>
     <row r="23">
@@ -24428,7 +24998,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>422</v>
+        <v>506</v>
       </c>
     </row>
     <row r="24">
@@ -24442,7 +25012,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>423</v>
+        <v>507</v>
       </c>
     </row>
     <row r="26">
@@ -24464,7 +25034,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>424</v>
+        <v>508</v>
       </c>
     </row>
     <row r="29">
@@ -24472,7 +25042,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>425</v>
+        <v>509</v>
       </c>
     </row>
     <row r="30">
@@ -24532,37 +25102,73 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
       <c r="B39" s="5"/>
     </row>
     <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
       <c r="B40" s="5"/>
     </row>
     <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
       <c r="B41" s="5"/>
     </row>
     <row r="42">
-      <c r="B42" s="5"/>
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="43">
-      <c r="B43" s="5"/>
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
       <c r="B44" s="5"/>
     </row>
     <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
       <c r="B45" s="5"/>
     </row>
     <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
       <c r="B46" s="5"/>
     </row>
     <row r="47">
-      <c r="B47" s="5"/>
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
       <c r="B48" s="5"/>
     </row>
     <row r="49">
@@ -27731,34 +28337,78 @@
       </c>
     </row>
     <row r="39">
-      <c r="B39" s="5"/>
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="40">
-      <c r="B40" s="5"/>
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="41">
-      <c r="B41" s="5"/>
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="42">
-      <c r="B42" s="5"/>
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="43">
-      <c r="B43" s="5"/>
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
       <c r="B44" s="5"/>
     </row>
     <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
       <c r="B45" s="5"/>
     </row>
     <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
       <c r="B46" s="5"/>
     </row>
     <row r="47">
-      <c r="B47" s="5"/>
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="48">
-      <c r="B48" s="5"/>
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="49">
       <c r="B49" s="5"/>
@@ -30638,7 +31288,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2">
@@ -30646,7 +31296,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3">
@@ -30654,7 +31304,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4">
@@ -30676,7 +31326,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
@@ -30684,7 +31334,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8">
@@ -30700,7 +31350,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
@@ -30732,7 +31382,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14">
@@ -30740,7 +31390,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
@@ -30748,7 +31398,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
@@ -30756,7 +31406,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17">
@@ -30778,7 +31428,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20">
@@ -30792,7 +31442,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22">
@@ -30800,7 +31450,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23">
@@ -30808,7 +31458,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24">
@@ -30822,7 +31472,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26">
@@ -30844,7 +31494,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29">
@@ -30852,7 +31502,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30">
@@ -30860,7 +31510,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31">
@@ -30882,7 +31532,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34">
@@ -30904,7 +31554,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37">
@@ -30920,38 +31570,82 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39">
-      <c r="B39" s="5"/>
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="40">
-      <c r="B40" s="5"/>
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="41">
-      <c r="B41" s="5"/>
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="42">
-      <c r="B42" s="5"/>
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="43">
-      <c r="B43" s="5"/>
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
       <c r="B44" s="5"/>
     </row>
     <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
       <c r="B45" s="5"/>
     </row>
     <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
       <c r="B46" s="5"/>
     </row>
     <row r="47">
-      <c r="B47" s="5"/>
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="48">
-      <c r="B48" s="5"/>
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="49">
       <c r="B49" s="5"/>
@@ -33831,7 +34525,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2">
@@ -33839,7 +34533,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3">
@@ -33847,7 +34541,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4">
@@ -33855,7 +34549,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5">
@@ -33863,7 +34557,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6">
@@ -33871,7 +34565,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
@@ -33879,7 +34573,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
@@ -33895,7 +34589,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
@@ -33903,7 +34597,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11">
@@ -33911,7 +34605,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12">
@@ -33919,7 +34613,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13">
@@ -33927,7 +34621,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14">
@@ -33941,7 +34635,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16">
@@ -33949,7 +34643,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17">
@@ -33957,7 +34651,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18">
@@ -33965,7 +34659,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19">
@@ -33973,7 +34667,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20">
@@ -33981,7 +34675,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21">
@@ -33989,7 +34683,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22">
@@ -33997,7 +34691,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23">
@@ -34005,7 +34699,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24">
@@ -34013,7 +34707,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25">
@@ -34021,7 +34715,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26">
@@ -34035,7 +34729,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28">
@@ -34043,7 +34737,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29">
@@ -34051,7 +34745,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30">
@@ -34059,7 +34753,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31">
@@ -34067,7 +34761,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32">
@@ -34075,7 +34769,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33">
@@ -34083,7 +34777,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34">
@@ -34091,7 +34785,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35">
@@ -34099,7 +34793,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36">
@@ -34107,7 +34801,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37">
@@ -34115,7 +34809,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38">
@@ -34127,34 +34821,82 @@
       </c>
     </row>
     <row r="39">
-      <c r="B39" s="5"/>
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="40">
-      <c r="B40" s="5"/>
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="41">
-      <c r="B41" s="5"/>
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="42">
-      <c r="B42" s="5"/>
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="43">
-      <c r="B43" s="5"/>
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
       <c r="B44" s="5"/>
     </row>
     <row r="45">
-      <c r="B45" s="5"/>
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="46">
-      <c r="B46" s="5"/>
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="47">
-      <c r="B47" s="5"/>
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="48">
-      <c r="B48" s="5"/>
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="49">
       <c r="B49" s="5"/>
@@ -37034,7 +37776,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
@@ -37042,7 +37784,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3">
@@ -37050,7 +37792,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4">
@@ -37058,7 +37800,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5">
@@ -37066,7 +37808,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6">
@@ -37074,7 +37816,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7">
@@ -37082,7 +37824,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8">
@@ -37098,7 +37840,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10">
@@ -37106,7 +37848,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11">
@@ -37114,7 +37856,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12">
@@ -37122,7 +37864,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13">
@@ -37130,7 +37872,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14">
@@ -37152,7 +37894,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17">
@@ -37160,7 +37902,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18">
@@ -37168,7 +37910,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19">
@@ -37176,7 +37918,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20">
@@ -37184,7 +37926,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21">
@@ -37192,7 +37934,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22">
@@ -37200,7 +37942,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23">
@@ -37208,7 +37950,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24">
@@ -37216,7 +37958,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25">
@@ -37224,7 +37966,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26">
@@ -37246,7 +37988,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29">
@@ -37254,7 +37996,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30">
@@ -37262,7 +38004,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31">
@@ -37276,7 +38018,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33">
@@ -37284,7 +38026,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34">
@@ -37292,7 +38034,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35">
@@ -37300,7 +38042,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36">
@@ -37308,7 +38050,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37">
@@ -37316,7 +38058,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38">
@@ -37324,38 +38066,86 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39">
-      <c r="B39" s="5"/>
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="40">
-      <c r="B40" s="5"/>
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="41">
-      <c r="B41" s="5"/>
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="42">
-      <c r="B42" s="5"/>
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="43">
-      <c r="B43" s="5"/>
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
       <c r="B44" s="5"/>
     </row>
     <row r="45">
-      <c r="B45" s="5"/>
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="46">
-      <c r="B46" s="5"/>
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="47">
-      <c r="B47" s="5"/>
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="48">
-      <c r="B48" s="5"/>
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="49">
       <c r="B49" s="5"/>
@@ -40235,7 +41025,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2">
@@ -40243,7 +41033,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3">
@@ -40257,7 +41047,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5">
@@ -40265,7 +41055,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6">
@@ -40273,7 +41063,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7">
@@ -40281,7 +41071,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8">
@@ -40297,7 +41087,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10">
@@ -40305,7 +41095,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11">
@@ -40313,7 +41103,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12">
@@ -40321,7 +41111,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13">
@@ -40329,7 +41119,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14">
@@ -40343,7 +41133,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16">
@@ -40351,7 +41141,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17">
@@ -40359,7 +41149,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18">
@@ -40367,7 +41157,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19">
@@ -40375,7 +41165,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20">
@@ -40383,7 +41173,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21">
@@ -40391,7 +41181,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22">
@@ -40399,7 +41189,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23">
@@ -40407,7 +41197,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24">
@@ -40421,7 +41211,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26">
@@ -40443,7 +41233,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29">
@@ -40451,7 +41241,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30">
@@ -40459,7 +41249,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31">
@@ -40467,7 +41257,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32">
@@ -40475,7 +41265,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
     </row>
     <row r="33">
@@ -40483,7 +41273,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34">
@@ -40491,7 +41281,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35">
@@ -40505,7 +41295,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37">
@@ -40513,7 +41303,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38">
@@ -40521,38 +41311,84 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39">
-      <c r="B39" s="5"/>
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="40">
-      <c r="B40" s="5"/>
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="41">
-      <c r="B41" s="5"/>
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="42">
-      <c r="B42" s="5"/>
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="43">
-      <c r="B43" s="5"/>
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
       <c r="B44" s="5"/>
     </row>
     <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
       <c r="B45" s="5"/>
     </row>
     <row r="46">
-      <c r="B46" s="5"/>
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="47">
-      <c r="B47" s="5"/>
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="48">
-      <c r="B48" s="5"/>
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="49">
       <c r="B49" s="5"/>
@@ -43432,7 +44268,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2">
@@ -43440,7 +44276,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>178</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3">
@@ -43448,7 +44284,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>179</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4">
@@ -43456,7 +44292,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5">
@@ -43464,7 +44300,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6">
@@ -43472,7 +44308,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7">
@@ -43480,7 +44316,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8">
@@ -43496,7 +44332,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>184</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10">
@@ -43504,7 +44340,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>185</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11">
@@ -43512,7 +44348,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>186</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12">
@@ -43528,7 +44364,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>187</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14">
@@ -43550,7 +44386,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17">
@@ -43558,7 +44394,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18">
@@ -43566,7 +44402,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19">
@@ -43574,7 +44410,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>191</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20">
@@ -43582,7 +44418,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>192</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21">
@@ -43590,7 +44426,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>193</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22">
@@ -43598,7 +44434,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>194</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23">
@@ -43606,7 +44442,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>195</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24">
@@ -43614,7 +44450,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>196</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25">
@@ -43622,7 +44458,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>197</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26">
@@ -43636,7 +44472,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>198</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28">
@@ -43644,7 +44480,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>199</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29">
@@ -43652,7 +44488,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>200</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30">
@@ -43660,7 +44496,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>201</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31">
@@ -43668,7 +44504,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>202</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32">
@@ -43676,7 +44512,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>203</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33">
@@ -43684,7 +44520,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>204</v>
+        <v>237</v>
       </c>
     </row>
     <row r="34">
@@ -43692,7 +44528,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>205</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35">
@@ -43706,7 +44542,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>206</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37">
@@ -43714,7 +44550,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38">
@@ -43722,38 +44558,86 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39">
-      <c r="B39" s="5"/>
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="40">
-      <c r="B40" s="5"/>
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="41">
-      <c r="B41" s="5"/>
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="42">
-      <c r="B42" s="5"/>
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="43">
-      <c r="B43" s="5"/>
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
       <c r="B44" s="5"/>
     </row>
     <row r="45">
-      <c r="B45" s="5"/>
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="46">
-      <c r="B46" s="5"/>
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="47">
-      <c r="B47" s="5"/>
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="48">
-      <c r="B48" s="5"/>
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="49">
       <c r="B49" s="5"/>
@@ -46633,7 +47517,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>208</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2">
@@ -46641,7 +47525,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3">
@@ -46649,7 +47533,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>210</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4">
@@ -46657,7 +47541,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>211</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5">
@@ -46665,7 +47549,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>212</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6">
@@ -46673,7 +47557,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>213</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7">
@@ -46681,7 +47565,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>214</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8">
@@ -46697,7 +47581,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10">
@@ -46705,7 +47589,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>215</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11">
@@ -46713,7 +47597,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12">
@@ -46743,7 +47627,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>217</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16">
@@ -46751,7 +47635,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>218</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17">
@@ -46759,7 +47643,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>219</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18">
@@ -46767,7 +47651,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>220</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19">
@@ -46775,7 +47659,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>221</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20">
@@ -46783,7 +47667,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>222</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21">
@@ -46791,7 +47675,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>223</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22">
@@ -46799,7 +47683,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>224</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23">
@@ -46807,7 +47691,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>225</v>
+        <v>266</v>
       </c>
     </row>
     <row r="24">
@@ -46815,7 +47699,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>226</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25">
@@ -46823,7 +47707,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>227</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26">
@@ -46837,7 +47721,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>228</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28">
@@ -46845,7 +47729,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>229</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29">
@@ -46853,7 +47737,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>230</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30">
@@ -46861,7 +47745,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>231</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31">
@@ -46869,7 +47753,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>232</v>
+        <v>273</v>
       </c>
     </row>
     <row r="32">
@@ -46877,7 +47761,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33">
@@ -46885,7 +47769,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>234</v>
+        <v>275</v>
       </c>
     </row>
     <row r="34">
@@ -46893,7 +47777,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>235</v>
+        <v>276</v>
       </c>
     </row>
     <row r="35">
@@ -46901,7 +47785,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>236</v>
+        <v>277</v>
       </c>
     </row>
     <row r="36">
@@ -46909,7 +47793,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>237</v>
+        <v>278</v>
       </c>
     </row>
     <row r="37">
@@ -46917,7 +47801,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>238</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38">
@@ -46929,34 +47813,80 @@
       </c>
     </row>
     <row r="39">
-      <c r="B39" s="5"/>
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="40">
-      <c r="B40" s="5"/>
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="41">
-      <c r="B41" s="5"/>
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="42">
-      <c r="B42" s="5"/>
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="43">
-      <c r="B43" s="5"/>
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
       <c r="B44" s="5"/>
     </row>
     <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
       <c r="B45" s="5"/>
     </row>
     <row r="46">
-      <c r="B46" s="5"/>
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="47">
-      <c r="B47" s="5"/>
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="48">
-      <c r="B48" s="5"/>
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="49">
       <c r="B49" s="5"/>
@@ -49836,7 +50766,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>239</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2">
@@ -49844,7 +50774,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>240</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3">
@@ -49852,7 +50782,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>241</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4">
@@ -49860,7 +50790,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>242</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5">
@@ -49876,7 +50806,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>243</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7">
@@ -49884,7 +50814,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>244</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8">
@@ -49900,7 +50830,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>245</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10">
@@ -49908,7 +50838,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>246</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11">
@@ -49916,7 +50846,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>244</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12">
@@ -49946,7 +50876,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>247</v>
+        <v>295</v>
       </c>
     </row>
     <row r="16">
@@ -49954,7 +50884,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>248</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17">
@@ -49962,7 +50892,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>249</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18">
@@ -49970,7 +50900,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>250</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19">
@@ -49978,7 +50908,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>251</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20">
@@ -49986,7 +50916,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>252</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21">
@@ -49994,7 +50924,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>253</v>
+        <v>301</v>
       </c>
     </row>
     <row r="22">
@@ -50002,7 +50932,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>254</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23">
@@ -50010,7 +50940,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>255</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24">
@@ -50018,7 +50948,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>256</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25">
@@ -50026,7 +50956,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>257</v>
+        <v>305</v>
       </c>
     </row>
     <row r="26">
@@ -50040,7 +50970,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>258</v>
+        <v>306</v>
       </c>
     </row>
     <row r="28">
@@ -50048,7 +50978,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>259</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29">
@@ -50056,7 +50986,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30">
@@ -50064,7 +50994,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
     </row>
     <row r="31">
@@ -50072,7 +51002,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
     </row>
     <row r="32">
@@ -50080,7 +51010,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>263</v>
+        <v>311</v>
       </c>
     </row>
     <row r="33">
@@ -50088,7 +51018,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>264</v>
+        <v>312</v>
       </c>
     </row>
     <row r="34">
@@ -50096,7 +51026,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>265</v>
+        <v>313</v>
       </c>
     </row>
     <row r="35">
@@ -50104,7 +51034,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>266</v>
+        <v>314</v>
       </c>
     </row>
     <row r="36">
@@ -50112,7 +51042,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>267</v>
+        <v>315</v>
       </c>
     </row>
     <row r="37">
@@ -50120,7 +51050,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>268</v>
+        <v>316</v>
       </c>
     </row>
     <row r="38">
@@ -50128,38 +51058,86 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39">
-      <c r="B39" s="5"/>
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="40">
-      <c r="B40" s="5"/>
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="41">
-      <c r="B41" s="5"/>
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="42">
-      <c r="B42" s="5"/>
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="43">
-      <c r="B43" s="5"/>
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
       <c r="B44" s="5"/>
     </row>
     <row r="45">
-      <c r="B45" s="5"/>
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="46">
-      <c r="B46" s="5"/>
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="47">
-      <c r="B47" s="5"/>
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="48">
-      <c r="B48" s="5"/>
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="49">
       <c r="B49" s="5"/>

--- a/PRIME_survey_reponses.xlsx
+++ b/PRIME_survey_reponses.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="533">
   <si>
     <t xml:space="preserve">10. If you would like to provide any additional suggestions or information, please do so here. </t>
   </si>
@@ -235,6 +235,9 @@
     <t xml:space="preserve">orientation  motion  faces  actions (grasping, etc)  (social) interactions    I'm focusing on vision here as sound would in many cases (at least in our case) be tricky to implement just for this purpose.</t>
   </si>
   <si>
+    <t xml:space="preserve">Social versus non-social interactions (including social rejection), faces, bodies, variation of emotional expressions (e.g., angry, happy, neutral), vocalizations</t>
+  </si>
+  <si>
     <t xml:space="preserve">2. How would you order these elements based on priority?</t>
   </si>
   <si>
@@ -308,6 +311,9 @@
   </si>
   <si>
     <t xml:space="preserve">As above, but open to hypothesis-driven ranking.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social versus non-social interactions, faces, bodies, variation of emotional expressions, vocalizations, other sounds</t>
   </si>
   <si>
     <t xml:space="preserve">1. What software package(s) do you use for data analysis?</t>
@@ -433,6 +439,12 @@
     <t xml:space="preserve">FreeSurfer, Caret, AFNI, FSL, REST, SPM, ANTs, and code from research papers, custom-written code if none is available.</t>
   </si>
   <si>
+    <t xml:space="preserve">FSL, AFNI, MIM with built in extensions, Tortoise, PMOD, Matlab, ImageJ, MIPAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSL, AFNI, ANTS. C-PAC is currently being expanded to extend reproducible, configurable processing capabilities of the platform to nonhuman literature.</t>
+  </si>
+  <si>
     <t xml:space="preserve">2. What hacks were required to make these packages work for NHP data?</t>
   </si>
   <si>
@@ -550,6 +562,12 @@
     <t xml:space="preserve">Software packages are designed primarily for human analyses. Details related to brain size/cortical thickness, segmentation (MRF), and smoothing are key to successful adaptation for NHP.</t>
   </si>
   <si>
+    <t xml:space="preserve">1) Need to use NHP based brain template for purpose of spatial normalization.   2) Developed method of brain deskulling based on template brain and non-rigid registration as other deskulling methods designed for human brains did not function properly on NHPs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attempting different skull stripping strategies</t>
+  </si>
+  <si>
     <t xml:space="preserve">3. What are the main problems (preprocessing, analyses) that you run into and that the community needs to solve for NHP data?</t>
   </si>
   <si>
@@ -659,6 +677,12 @@
   </si>
   <si>
     <t xml:space="preserve">Skull stripping for rhesus monkeys is a major issue for automatic routines such as FSL BET and AFNI 3dSkullStrip (which uses BET) because they rely on smoothing. These issues interfere with the quality of surface-based methods and alignment using FLIRT or AFNI/ANTs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Better methods of organ segmentation that work on NHPs which have less fat, etc.  2. Determination of normal baselines for quantitative metrics such as T1 maps, PET SUV values within organs, etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skull stripping  registration</t>
   </si>
   <si>
     <t xml:space="preserve">4. Do you rely primarily on volume or surface-based approaches for inter-subject registration? Is there a particular reason as to why?</t>
@@ -778,6 +802,12 @@
     <t xml:space="preserve">Volume-based registration. Surface methods are derived from volume which may result in accumulated errors.</t>
   </si>
   <si>
+    <t xml:space="preserve">Volume approaches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Both, depends on the question at hand.</t>
+  </si>
+  <si>
     <t xml:space="preserve">1. What type of scanner and head coil(s) does your work rely on? Are there any specific advantages?</t>
   </si>
   <si>
@@ -892,6 +922,12 @@
     <t xml:space="preserve">Siemens Allegra 3T with custom designed coil.</t>
   </si>
   <si>
+    <t xml:space="preserve">Philips 3T Achieva scanner. Pediatric head/spine coil. Fits well on NHP head.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tri  custom 8-channel surface coil</t>
+  </si>
+  <si>
     <t xml:space="preserve">2. What image sequence types do you obtain in all studies? (e.g., T1W, T2W, dMRI, fMRI, field map); for each modality, what spatial resolution and (if used) multi-band factor?</t>
   </si>
   <si>
@@ -1003,6 +1039,12 @@
     <t xml:space="preserve">T1W, 0.6mm^3  fMRI, 1.6mm^3, TE=0.03, TR=2s, Flip Angle=79 degree, (sequence: ep2d_bold_64_HF)</t>
   </si>
   <si>
+    <t xml:space="preserve">T1W, T2W, DWI, DTI, fMRI, SWI, FLAIR w/wo contrast, Fiesta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1W, T2W, dMRI, fMRI, field map  1.5mm</t>
+  </si>
+  <si>
     <t xml:space="preserve">3. Are you using MION or other iron-based contrast agents? If so, what specific agent and dose?</t>
   </si>
   <si>
@@ -1079,6 +1121,9 @@
   </si>
   <si>
     <t xml:space="preserve">Not at the moment. BOLD works reasonably well for us, but we do consider MION for certain studies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molday</t>
   </si>
   <si>
     <t xml:space="preserve">4. If you use anesthesia, what specific type and levels do you use?</t>
@@ -1174,6 +1219,12 @@
     <t xml:space="preserve">Isoflurane (0.5-2.0%)</t>
   </si>
   <si>
+    <t xml:space="preserve">ketamine, isoflurane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ketamine (induction), Isoflurane</t>
+  </si>
+  <si>
     <t xml:space="preserve">5. What protocols have you applied to do awake imaging (e.g., Do you obtain eye-tracking in the scanner? What physiologic measures?)?</t>
   </si>
   <si>
@@ -1258,6 +1309,9 @@
     <t xml:space="preserve">We routinely use:  - Eye-tracking  - Tracking of hand position &amp; 2 levers with optic fibers (4 sets in total)</t>
   </si>
   <si>
+    <t xml:space="preserve">rest, movie viewing, eye tracking</t>
+  </si>
+  <si>
     <t xml:space="preserve">6. What protocols are you using to optimize various acquisition parameters? Or rather, what are the tools and parameters you use to assess the quality of your acquisition?</t>
   </si>
   <si>
@@ -1336,6 +1390,9 @@
     <t xml:space="preserve">Automatic anatomical QA based on contrast between foreground/background/WM/GM/CSF.</t>
   </si>
   <si>
+    <t xml:space="preserve">Phantom evaluation for T1 mapping</t>
+  </si>
+  <si>
     <t xml:space="preserve">7. What acquisition standards do you feel are required for surface-based or volume based processing and registration?</t>
   </si>
   <si>
@@ -1394,6 +1451,9 @@
   </si>
   <si>
     <t xml:space="preserve">Isometric voxel size is required for surface based processing, but might be less critical for volume-based processing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1W, T2W</t>
   </si>
   <si>
     <t xml:space="preserve">8. What do you use for distortion correction and acquisition for Mion vs BOLD sequences?</t>
@@ -1531,6 +1591,12 @@
     <t xml:space="preserve">Not a strong opinion about this, but some level of standardization might definitely be nice.</t>
   </si>
   <si>
+    <t xml:space="preserve">Faster acquisitions that allow multiple sequences acquired during anesthesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1W, T2W, fMRI, dMRI</t>
+  </si>
+  <si>
     <t xml:space="preserve">10. If you would like to provide any additional suggestions or information, please do so here.</t>
   </si>
   <si>
@@ -1559,6 +1625,9 @@
   </si>
   <si>
     <t xml:space="preserve">access to single datasets would be nice (like using zenodo (or figshare)  I prefer a (BIDSified) naming scheme where the species name is still somehow visible. You provide mostly crab-eating and rhesus macaques -- but even in these cases, I like better the naming you provide in utrecht site than in others)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Answers to questionnaire already provided by Xiaowei Song</t>
   </si>
 </sst>
 </file>
@@ -2169,7 +2238,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2">
@@ -2177,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3">
@@ -2185,7 +2254,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4">
@@ -2193,7 +2262,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5">
@@ -2209,7 +2278,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7">
@@ -2217,7 +2286,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8">
@@ -2233,7 +2302,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
@@ -2241,7 +2310,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11">
@@ -2279,7 +2348,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
     </row>
     <row r="16">
@@ -2287,7 +2356,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17">
@@ -2295,7 +2364,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
     </row>
     <row r="18">
@@ -2303,7 +2372,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19">
@@ -2311,7 +2380,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
     </row>
     <row r="20">
@@ -2319,7 +2388,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
     </row>
     <row r="21">
@@ -2327,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
     </row>
     <row r="22">
@@ -2335,7 +2404,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
     </row>
     <row r="23">
@@ -2343,7 +2412,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
     </row>
     <row r="24">
@@ -2351,7 +2420,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25">
@@ -2359,7 +2428,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
     </row>
     <row r="26">
@@ -2381,7 +2450,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
     </row>
     <row r="29">
@@ -2389,7 +2458,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
     </row>
     <row r="30">
@@ -2397,7 +2466,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
     </row>
     <row r="31">
@@ -2405,7 +2474,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
     </row>
     <row r="32">
@@ -2413,7 +2482,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
     </row>
     <row r="33">
@@ -2421,7 +2490,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
     </row>
     <row r="34">
@@ -2429,7 +2498,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
     </row>
     <row r="35">
@@ -2437,7 +2506,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
     </row>
     <row r="36">
@@ -2445,7 +2514,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
     </row>
     <row r="37">
@@ -2453,7 +2522,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
     </row>
     <row r="38">
@@ -2461,7 +2530,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39">
@@ -2469,7 +2538,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
     </row>
     <row r="40">
@@ -2477,7 +2546,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
     </row>
     <row r="41">
@@ -2485,7 +2554,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
     </row>
     <row r="42">
@@ -2493,7 +2562,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
     </row>
     <row r="43">
@@ -2521,7 +2590,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
     </row>
     <row r="47">
@@ -2529,7 +2598,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
     </row>
     <row r="48">
@@ -2541,12 +2610,23 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
       <c r="B49" s="5"/>
     </row>
     <row r="50">
-      <c r="B50" s="5"/>
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
       <c r="B51" s="5"/>
     </row>
     <row r="52">
@@ -5418,7 +5498,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
     </row>
     <row r="2">
@@ -5426,7 +5506,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3">
@@ -5434,7 +5514,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4">
@@ -5442,7 +5522,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5">
@@ -5458,7 +5538,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7">
@@ -5466,7 +5546,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8">
@@ -5482,7 +5562,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10">
@@ -5490,7 +5570,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11">
@@ -5498,7 +5578,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12">
@@ -5528,7 +5608,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
     </row>
     <row r="16">
@@ -5536,7 +5616,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
     </row>
     <row r="17">
@@ -5544,7 +5624,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
     </row>
     <row r="18">
@@ -5552,7 +5632,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
     </row>
     <row r="19">
@@ -5560,7 +5640,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
     </row>
     <row r="20">
@@ -5568,7 +5648,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
     </row>
     <row r="21">
@@ -5582,7 +5662,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
     </row>
     <row r="23">
@@ -5590,7 +5670,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
     </row>
     <row r="24">
@@ -5598,7 +5678,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25">
@@ -5606,7 +5686,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
     </row>
     <row r="26">
@@ -5628,7 +5708,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
     </row>
     <row r="29">
@@ -5636,7 +5716,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
     </row>
     <row r="30">
@@ -5644,7 +5724,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
     </row>
     <row r="31">
@@ -5652,7 +5732,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
     </row>
     <row r="32">
@@ -5660,7 +5740,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
     </row>
     <row r="33">
@@ -5668,7 +5748,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
     </row>
     <row r="34">
@@ -5676,7 +5756,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
     </row>
     <row r="35">
@@ -5690,7 +5770,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
     </row>
     <row r="37">
@@ -5698,7 +5778,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
     </row>
     <row r="38">
@@ -5706,7 +5786,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39">
@@ -5714,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
     </row>
     <row r="40">
@@ -5722,7 +5802,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
     </row>
     <row r="41">
@@ -5730,7 +5810,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
     </row>
     <row r="42">
@@ -5738,7 +5818,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43">
@@ -5766,7 +5846,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
     </row>
     <row r="47">
@@ -5774,7 +5854,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
     </row>
     <row r="48">
@@ -5782,16 +5862,29 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
     </row>
     <row r="49">
-      <c r="B49" s="5"/>
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="50">
-      <c r="B50" s="5"/>
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
       <c r="B51" s="5"/>
     </row>
     <row r="52">
@@ -8663,7 +8756,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
     </row>
     <row r="2">
@@ -8671,7 +8764,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3">
@@ -8679,7 +8772,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
     </row>
     <row r="4">
@@ -8687,7 +8780,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5">
@@ -8703,7 +8796,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
     </row>
     <row r="7">
@@ -8711,7 +8804,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8">
@@ -8727,7 +8820,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
@@ -8735,7 +8828,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
     </row>
     <row r="11">
@@ -8773,7 +8866,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
     </row>
     <row r="16">
@@ -8781,7 +8874,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
     </row>
     <row r="17">
@@ -8789,7 +8882,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
     </row>
     <row r="18">
@@ -8805,7 +8898,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
     </row>
     <row r="20">
@@ -8813,7 +8906,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
     </row>
     <row r="21">
@@ -8827,7 +8920,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
     </row>
     <row r="23">
@@ -8835,7 +8928,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
     </row>
     <row r="24">
@@ -8843,7 +8936,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
     </row>
     <row r="25">
@@ -8851,7 +8944,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
     </row>
     <row r="26">
@@ -8865,7 +8958,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
     </row>
     <row r="28">
@@ -8873,7 +8966,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
     </row>
     <row r="29">
@@ -8881,7 +8974,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
     </row>
     <row r="30">
@@ -8889,7 +8982,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
     </row>
     <row r="31">
@@ -8897,7 +8990,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
     </row>
     <row r="32">
@@ -8905,7 +8998,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
     </row>
     <row r="33">
@@ -8913,7 +9006,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
     </row>
     <row r="34">
@@ -8921,7 +9014,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
     </row>
     <row r="35">
@@ -8935,7 +9028,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
     </row>
     <row r="37">
@@ -8943,7 +9036,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
     </row>
     <row r="38">
@@ -8951,7 +9044,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39">
@@ -8959,7 +9052,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
     </row>
     <row r="40">
@@ -8967,7 +9060,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
     </row>
     <row r="41">
@@ -8975,7 +9068,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
     </row>
     <row r="42">
@@ -8983,7 +9076,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43">
@@ -9011,7 +9104,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
     </row>
     <row r="47">
@@ -9019,7 +9112,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
     </row>
     <row r="48">
@@ -9031,12 +9124,25 @@
       </c>
     </row>
     <row r="49">
-      <c r="B49" s="5"/>
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="50">
-      <c r="B50" s="5"/>
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
       <c r="B51" s="5"/>
     </row>
     <row r="52">
@@ -11908,7 +12014,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
     </row>
     <row r="2">
@@ -11916,7 +12022,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3">
@@ -11924,7 +12030,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
     </row>
     <row r="4">
@@ -11932,7 +12038,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
     </row>
     <row r="5">
@@ -11948,7 +12054,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7">
@@ -11956,7 +12062,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>412</v>
+        <v>430</v>
       </c>
     </row>
     <row r="8">
@@ -11964,7 +12070,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
     </row>
     <row r="9">
@@ -11972,7 +12078,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>414</v>
+        <v>432</v>
       </c>
     </row>
     <row r="10">
@@ -11988,7 +12094,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>412</v>
+        <v>430</v>
       </c>
     </row>
     <row r="12">
@@ -12018,7 +12124,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>415</v>
+        <v>433</v>
       </c>
     </row>
     <row r="16">
@@ -12026,7 +12132,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
     </row>
     <row r="17">
@@ -12046,7 +12152,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>417</v>
+        <v>435</v>
       </c>
     </row>
     <row r="20">
@@ -12054,7 +12160,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
     </row>
     <row r="21">
@@ -12062,7 +12168,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>419</v>
+        <v>437</v>
       </c>
     </row>
     <row r="22">
@@ -12070,7 +12176,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>420</v>
+        <v>438</v>
       </c>
     </row>
     <row r="23">
@@ -12078,7 +12184,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
     </row>
     <row r="24">
@@ -12092,7 +12198,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>422</v>
+        <v>440</v>
       </c>
     </row>
     <row r="26">
@@ -12106,7 +12212,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>423</v>
+        <v>441</v>
       </c>
     </row>
     <row r="28">
@@ -12114,7 +12220,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29">
@@ -12122,7 +12228,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
     </row>
     <row r="30">
@@ -12130,7 +12236,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>424</v>
+        <v>442</v>
       </c>
     </row>
     <row r="31">
@@ -12144,7 +12250,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>425</v>
+        <v>443</v>
       </c>
     </row>
     <row r="33">
@@ -12158,7 +12264,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>426</v>
+        <v>444</v>
       </c>
     </row>
     <row r="35">
@@ -12166,7 +12272,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
     </row>
     <row r="36">
@@ -12174,7 +12280,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
     </row>
     <row r="37">
@@ -12182,7 +12288,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
     </row>
     <row r="38">
@@ -12190,7 +12296,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39">
@@ -12198,7 +12304,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>430</v>
+        <v>448</v>
       </c>
     </row>
     <row r="40">
@@ -12206,7 +12312,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>431</v>
+        <v>449</v>
       </c>
     </row>
     <row r="41">
@@ -12214,7 +12320,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
     </row>
     <row r="42">
@@ -12222,7 +12328,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43">
@@ -12250,7 +12356,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>432</v>
+        <v>450</v>
       </c>
     </row>
     <row r="47">
@@ -12258,7 +12364,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>433</v>
+        <v>451</v>
       </c>
     </row>
     <row r="48">
@@ -12266,16 +12372,27 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
     </row>
     <row r="49">
-      <c r="B49" s="5"/>
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
       <c r="B50" s="5"/>
     </row>
     <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
       <c r="B51" s="5"/>
     </row>
     <row r="52">
@@ -15147,7 +15264,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>435</v>
+        <v>454</v>
       </c>
     </row>
     <row r="2">
@@ -15155,7 +15272,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3">
@@ -15183,7 +15300,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7">
@@ -15191,7 +15308,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>436</v>
+        <v>455</v>
       </c>
     </row>
     <row r="8">
@@ -15199,7 +15316,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>437</v>
+        <v>456</v>
       </c>
     </row>
     <row r="9">
@@ -15207,7 +15324,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
@@ -15215,7 +15332,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>438</v>
+        <v>457</v>
       </c>
     </row>
     <row r="11">
@@ -15223,7 +15340,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>439</v>
+        <v>458</v>
       </c>
     </row>
     <row r="12">
@@ -15239,7 +15356,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>440</v>
+        <v>459</v>
       </c>
     </row>
     <row r="14">
@@ -15267,7 +15384,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>441</v>
+        <v>460</v>
       </c>
     </row>
     <row r="18">
@@ -15281,7 +15398,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>442</v>
+        <v>461</v>
       </c>
     </row>
     <row r="20">
@@ -15289,7 +15406,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
     </row>
     <row r="21">
@@ -15303,7 +15420,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>444</v>
+        <v>463</v>
       </c>
     </row>
     <row r="23">
@@ -15323,7 +15440,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>445</v>
+        <v>464</v>
       </c>
     </row>
     <row r="26">
@@ -15345,7 +15462,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>446</v>
+        <v>465</v>
       </c>
     </row>
     <row r="29">
@@ -15353,7 +15470,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>447</v>
+        <v>466</v>
       </c>
     </row>
     <row r="30">
@@ -15401,7 +15518,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>448</v>
+        <v>467</v>
       </c>
     </row>
     <row r="37">
@@ -15409,7 +15526,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>449</v>
+        <v>468</v>
       </c>
     </row>
     <row r="38">
@@ -15417,7 +15534,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39">
@@ -15425,7 +15542,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>450</v>
+        <v>469</v>
       </c>
     </row>
     <row r="40">
@@ -15433,7 +15550,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>451</v>
+        <v>470</v>
       </c>
     </row>
     <row r="41">
@@ -15441,7 +15558,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>449</v>
+        <v>468</v>
       </c>
     </row>
     <row r="42">
@@ -15449,7 +15566,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43">
@@ -15477,7 +15594,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>452</v>
+        <v>471</v>
       </c>
     </row>
     <row r="47">
@@ -15485,7 +15602,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>453</v>
+        <v>472</v>
       </c>
     </row>
     <row r="48">
@@ -15493,16 +15610,27 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>454</v>
+        <v>473</v>
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
       <c r="B49" s="5"/>
     </row>
     <row r="50">
-      <c r="B50" s="5"/>
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
       <c r="B51" s="5"/>
     </row>
     <row r="52">
@@ -18374,7 +18502,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>455</v>
+        <v>475</v>
       </c>
     </row>
     <row r="2">
@@ -18382,7 +18510,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3">
@@ -18390,7 +18518,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>456</v>
+        <v>476</v>
       </c>
     </row>
     <row r="4">
@@ -18412,7 +18540,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7">
@@ -18420,7 +18548,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>457</v>
+        <v>477</v>
       </c>
     </row>
     <row r="8">
@@ -18428,7 +18556,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>458</v>
+        <v>478</v>
       </c>
     </row>
     <row r="9">
@@ -18436,7 +18564,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
@@ -18444,7 +18572,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>459</v>
+        <v>479</v>
       </c>
     </row>
     <row r="11">
@@ -18498,7 +18626,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>460</v>
+        <v>480</v>
       </c>
     </row>
     <row r="18">
@@ -18512,7 +18640,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>461</v>
+        <v>481</v>
       </c>
     </row>
     <row r="20">
@@ -18520,7 +18648,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>462</v>
+        <v>482</v>
       </c>
     </row>
     <row r="21">
@@ -18534,7 +18662,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>463</v>
+        <v>483</v>
       </c>
     </row>
     <row r="23">
@@ -18548,7 +18676,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>464</v>
+        <v>484</v>
       </c>
     </row>
     <row r="25">
@@ -18556,7 +18684,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>465</v>
+        <v>485</v>
       </c>
     </row>
     <row r="26">
@@ -18570,7 +18698,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>466</v>
+        <v>486</v>
       </c>
     </row>
     <row r="28">
@@ -18578,7 +18706,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29">
@@ -18586,7 +18714,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
     </row>
     <row r="30">
@@ -18594,7 +18722,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>467</v>
+        <v>487</v>
       </c>
     </row>
     <row r="31">
@@ -18608,7 +18736,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>468</v>
+        <v>488</v>
       </c>
     </row>
     <row r="33">
@@ -18616,7 +18744,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>469</v>
+        <v>489</v>
       </c>
     </row>
     <row r="34">
@@ -18624,7 +18752,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>470</v>
+        <v>490</v>
       </c>
     </row>
     <row r="35">
@@ -18632,7 +18760,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>471</v>
+        <v>491</v>
       </c>
     </row>
     <row r="36">
@@ -18640,7 +18768,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
     </row>
     <row r="37">
@@ -18648,7 +18776,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>473</v>
+        <v>493</v>
       </c>
     </row>
     <row r="38">
@@ -18656,7 +18784,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39">
@@ -18664,7 +18792,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>474</v>
+        <v>494</v>
       </c>
     </row>
     <row r="40">
@@ -18672,7 +18800,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41">
@@ -18680,7 +18808,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>473</v>
+        <v>493</v>
       </c>
     </row>
     <row r="42">
@@ -18688,7 +18816,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>475</v>
+        <v>495</v>
       </c>
     </row>
     <row r="43">
@@ -18722,7 +18850,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>476</v>
+        <v>496</v>
       </c>
     </row>
     <row r="48">
@@ -18730,16 +18858,27 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>477</v>
+        <v>497</v>
       </c>
     </row>
     <row r="49">
-      <c r="B49" s="5"/>
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
       <c r="B50" s="5"/>
     </row>
     <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
       <c r="B51" s="5"/>
     </row>
     <row r="52">
@@ -21611,7 +21750,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>478</v>
+        <v>498</v>
       </c>
     </row>
     <row r="2">
@@ -21619,7 +21758,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>479</v>
+        <v>499</v>
       </c>
     </row>
     <row r="3">
@@ -21647,7 +21786,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7">
@@ -21655,7 +21794,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>480</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8">
@@ -21663,7 +21802,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>481</v>
+        <v>501</v>
       </c>
     </row>
     <row r="9">
@@ -21671,7 +21810,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>482</v>
+        <v>502</v>
       </c>
     </row>
     <row r="10">
@@ -21685,7 +21824,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
     </row>
     <row r="12">
@@ -21701,7 +21840,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>484</v>
+        <v>504</v>
       </c>
     </row>
     <row r="14">
@@ -21723,7 +21862,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>485</v>
+        <v>505</v>
       </c>
     </row>
     <row r="17">
@@ -21731,7 +21870,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>486</v>
+        <v>506</v>
       </c>
     </row>
     <row r="18">
@@ -21745,7 +21884,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>487</v>
+        <v>507</v>
       </c>
     </row>
     <row r="20">
@@ -21753,7 +21892,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>488</v>
+        <v>508</v>
       </c>
     </row>
     <row r="21">
@@ -21761,7 +21900,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>489</v>
+        <v>509</v>
       </c>
     </row>
     <row r="22">
@@ -21769,7 +21908,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>490</v>
+        <v>510</v>
       </c>
     </row>
     <row r="23">
@@ -21777,7 +21916,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>491</v>
+        <v>511</v>
       </c>
     </row>
     <row r="24">
@@ -21791,7 +21930,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>492</v>
+        <v>512</v>
       </c>
     </row>
     <row r="26">
@@ -21813,7 +21952,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29">
@@ -21821,7 +21960,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30">
@@ -21829,7 +21968,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>493</v>
+        <v>513</v>
       </c>
     </row>
     <row r="31">
@@ -21851,7 +21990,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>494</v>
+        <v>514</v>
       </c>
     </row>
     <row r="34">
@@ -21859,7 +21998,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>495</v>
+        <v>515</v>
       </c>
     </row>
     <row r="35">
@@ -21879,7 +22018,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>496</v>
+        <v>516</v>
       </c>
     </row>
     <row r="38">
@@ -21887,7 +22026,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39">
@@ -21901,7 +22040,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>497</v>
+        <v>517</v>
       </c>
     </row>
     <row r="41">
@@ -21909,7 +22048,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>496</v>
+        <v>516</v>
       </c>
     </row>
     <row r="42">
@@ -21917,7 +22056,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43">
@@ -21945,7 +22084,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>498</v>
+        <v>518</v>
       </c>
     </row>
     <row r="47">
@@ -21953,7 +22092,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>499</v>
+        <v>519</v>
       </c>
     </row>
     <row r="48">
@@ -21965,12 +22104,25 @@
       </c>
     </row>
     <row r="49">
-      <c r="B49" s="5"/>
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>520</v>
+      </c>
     </row>
     <row r="50">
-      <c r="B50" s="5"/>
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
       <c r="B51" s="5"/>
     </row>
     <row r="52">
@@ -24842,7 +24994,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>500</v>
+        <v>522</v>
       </c>
     </row>
     <row r="2">
@@ -24850,7 +25002,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>501</v>
+        <v>523</v>
       </c>
     </row>
     <row r="3">
@@ -24864,7 +25016,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>502</v>
+        <v>524</v>
       </c>
     </row>
     <row r="5">
@@ -24880,7 +25032,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7">
@@ -24902,7 +25054,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>503</v>
+        <v>525</v>
       </c>
     </row>
     <row r="10">
@@ -24982,7 +25134,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>504</v>
+        <v>526</v>
       </c>
     </row>
     <row r="22">
@@ -24990,7 +25142,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>505</v>
+        <v>527</v>
       </c>
     </row>
     <row r="23">
@@ -24998,7 +25150,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>506</v>
+        <v>528</v>
       </c>
     </row>
     <row r="24">
@@ -25012,7 +25164,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>507</v>
+        <v>529</v>
       </c>
     </row>
     <row r="26">
@@ -25034,7 +25186,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>508</v>
+        <v>530</v>
       </c>
     </row>
     <row r="29">
@@ -25042,7 +25194,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>509</v>
+        <v>531</v>
       </c>
     </row>
     <row r="30">
@@ -25102,7 +25254,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39">
@@ -25128,7 +25280,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43">
@@ -25162,7 +25314,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="48">
@@ -25172,13 +25324,24 @@
       <c r="B48" s="5"/>
     </row>
     <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
       <c r="B49" s="5"/>
     </row>
     <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
       <c r="B50" s="5"/>
     </row>
     <row r="51">
-      <c r="B51" s="5"/>
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="52">
       <c r="B52" s="5"/>
@@ -28411,12 +28574,25 @@
       </c>
     </row>
     <row r="49">
-      <c r="B49" s="5"/>
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="50">
-      <c r="B50" s="5"/>
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
       <c r="B51" s="5"/>
     </row>
     <row r="52">
@@ -31288,7 +31464,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2">
@@ -31296,7 +31472,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3">
@@ -31304,7 +31480,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4">
@@ -31326,7 +31502,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
@@ -31334,7 +31510,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
@@ -31350,7 +31526,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
@@ -31382,7 +31558,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
@@ -31390,7 +31566,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15">
@@ -31398,7 +31574,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16">
@@ -31406,7 +31582,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17">
@@ -31428,7 +31604,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20">
@@ -31442,7 +31618,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22">
@@ -31450,7 +31626,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23">
@@ -31458,7 +31634,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24">
@@ -31472,7 +31648,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26">
@@ -31494,7 +31670,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29">
@@ -31502,7 +31678,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30">
@@ -31510,7 +31686,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31">
@@ -31532,7 +31708,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34">
@@ -31554,7 +31730,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37">
@@ -31570,7 +31746,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39">
@@ -31578,7 +31754,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40">
@@ -31586,7 +31762,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41">
@@ -31602,7 +31778,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43">
@@ -31610,7 +31786,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44">
@@ -31636,7 +31812,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48">
@@ -31648,12 +31824,25 @@
       </c>
     </row>
     <row r="49">
-      <c r="B49" s="5"/>
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="50">
-      <c r="B50" s="5"/>
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
       <c r="B51" s="5"/>
     </row>
     <row r="52">
@@ -34525,7 +34714,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2">
@@ -34533,7 +34722,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3">
@@ -34541,7 +34730,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4">
@@ -34549,7 +34738,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5">
@@ -34557,7 +34746,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6">
@@ -34565,7 +34754,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -34573,7 +34762,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8">
@@ -34589,7 +34778,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
@@ -34597,7 +34786,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11">
@@ -34605,7 +34794,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12">
@@ -34613,7 +34802,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13">
@@ -34621,7 +34810,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14">
@@ -34635,7 +34824,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16">
@@ -34643,7 +34832,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17">
@@ -34651,7 +34840,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18">
@@ -34659,7 +34848,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19">
@@ -34667,7 +34856,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20">
@@ -34675,7 +34864,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21">
@@ -34683,7 +34872,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22">
@@ -34691,7 +34880,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23">
@@ -34699,7 +34888,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24">
@@ -34707,7 +34896,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25">
@@ -34715,7 +34904,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26">
@@ -34729,7 +34918,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28">
@@ -34737,7 +34926,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29">
@@ -34745,7 +34934,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30">
@@ -34753,7 +34942,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31">
@@ -34761,7 +34950,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32">
@@ -34769,7 +34958,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33">
@@ -34777,7 +34966,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34">
@@ -34785,7 +34974,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35">
@@ -34793,7 +34982,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36">
@@ -34801,7 +34990,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37">
@@ -34809,7 +34998,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38">
@@ -34825,7 +35014,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40">
@@ -34833,7 +35022,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41">
@@ -34841,7 +35030,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42">
@@ -34849,7 +35038,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43">
@@ -34857,7 +35046,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44">
@@ -34871,7 +35060,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46">
@@ -34879,7 +35068,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47">
@@ -34887,7 +35076,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48">
@@ -34895,16 +35084,29 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49">
-      <c r="B49" s="5"/>
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="50">
-      <c r="B50" s="5"/>
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
       <c r="B51" s="5"/>
     </row>
     <row r="52">
@@ -37776,7 +37978,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2">
@@ -37784,7 +37986,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3">
@@ -37792,7 +37994,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4">
@@ -37800,7 +38002,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5">
@@ -37808,7 +38010,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6">
@@ -37816,7 +38018,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7">
@@ -37824,7 +38026,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8">
@@ -37840,7 +38042,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10">
@@ -37848,7 +38050,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11">
@@ -37856,7 +38058,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12">
@@ -37864,7 +38066,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13">
@@ -37872,7 +38074,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14">
@@ -37894,7 +38096,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17">
@@ -37902,7 +38104,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18">
@@ -37910,7 +38112,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19">
@@ -37918,7 +38120,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20">
@@ -37926,7 +38128,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21">
@@ -37934,7 +38136,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22">
@@ -37942,7 +38144,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23">
@@ -37950,7 +38152,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24">
@@ -37958,7 +38160,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25">
@@ -37966,7 +38168,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26">
@@ -37988,7 +38190,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29">
@@ -37996,7 +38198,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30">
@@ -38004,7 +38206,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31">
@@ -38018,7 +38220,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33">
@@ -38026,7 +38228,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34">
@@ -38034,7 +38236,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35">
@@ -38042,7 +38244,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36">
@@ -38050,7 +38252,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37">
@@ -38058,7 +38260,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38">
@@ -38066,7 +38268,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39">
@@ -38074,7 +38276,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40">
@@ -38082,7 +38284,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41">
@@ -38090,7 +38292,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42">
@@ -38098,7 +38300,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="43">
@@ -38120,7 +38322,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="46">
@@ -38128,7 +38330,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="47">
@@ -38136,7 +38338,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="48">
@@ -38144,16 +38346,29 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="49">
-      <c r="B49" s="5"/>
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="50">
-      <c r="B50" s="5"/>
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
       <c r="B51" s="5"/>
     </row>
     <row r="52">
@@ -41025,7 +41240,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2">
@@ -41033,7 +41248,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3">
@@ -41047,7 +41262,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5">
@@ -41055,7 +41270,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6">
@@ -41063,7 +41278,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7">
@@ -41071,7 +41286,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8">
@@ -41087,7 +41302,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10">
@@ -41095,7 +41310,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11">
@@ -41103,7 +41318,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12">
@@ -41111,7 +41326,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13">
@@ -41119,7 +41334,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14">
@@ -41133,7 +41348,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16">
@@ -41141,7 +41356,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17">
@@ -41149,7 +41364,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18">
@@ -41157,7 +41372,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19">
@@ -41165,7 +41380,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20">
@@ -41173,7 +41388,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21">
@@ -41181,7 +41396,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22">
@@ -41189,7 +41404,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23">
@@ -41197,7 +41412,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24">
@@ -41211,7 +41426,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26">
@@ -41233,7 +41448,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29">
@@ -41241,7 +41456,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30">
@@ -41249,7 +41464,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31">
@@ -41257,7 +41472,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32">
@@ -41265,7 +41480,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33">
@@ -41273,7 +41488,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34">
@@ -41281,7 +41496,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35">
@@ -41295,7 +41510,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="37">
@@ -41303,7 +41518,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38">
@@ -41311,7 +41526,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39">
@@ -41319,7 +41534,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="40">
@@ -41327,7 +41542,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="41">
@@ -41335,7 +41550,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="42">
@@ -41343,7 +41558,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="43">
@@ -41351,7 +41566,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="44">
@@ -41371,7 +41586,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="47">
@@ -41379,7 +41594,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="48">
@@ -41387,16 +41602,29 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="49">
-      <c r="B49" s="5"/>
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="50">
-      <c r="B50" s="5"/>
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
       <c r="B51" s="5"/>
     </row>
     <row r="52">
@@ -44268,7 +44496,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2">
@@ -44276,7 +44504,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3">
@@ -44284,7 +44512,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4">
@@ -44292,7 +44520,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5">
@@ -44300,7 +44528,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6">
@@ -44308,7 +44536,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7">
@@ -44316,7 +44544,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8">
@@ -44332,7 +44560,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10">
@@ -44340,7 +44568,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11">
@@ -44348,7 +44576,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12">
@@ -44364,7 +44592,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14">
@@ -44386,7 +44614,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17">
@@ -44394,7 +44622,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18">
@@ -44402,7 +44630,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19">
@@ -44410,7 +44638,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20">
@@ -44418,7 +44646,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21">
@@ -44426,7 +44654,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22">
@@ -44434,7 +44662,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23">
@@ -44442,7 +44670,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24">
@@ -44450,7 +44678,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25">
@@ -44458,7 +44686,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26">
@@ -44472,7 +44700,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28">
@@ -44480,7 +44708,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29">
@@ -44488,7 +44716,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30">
@@ -44496,7 +44724,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
     </row>
     <row r="31">
@@ -44504,7 +44732,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="32">
@@ -44512,7 +44740,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
     </row>
     <row r="33">
@@ -44520,7 +44748,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="34">
@@ -44528,7 +44756,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
     <row r="35">
@@ -44542,7 +44770,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37">
@@ -44550,7 +44778,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38">
@@ -44558,7 +44786,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39">
@@ -44566,7 +44794,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="40">
@@ -44574,7 +44802,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
     </row>
     <row r="41">
@@ -44582,7 +44810,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42">
@@ -44590,7 +44818,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="43">
@@ -44612,7 +44840,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="46">
@@ -44620,7 +44848,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
     </row>
     <row r="47">
@@ -44628,7 +44856,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="48">
@@ -44636,16 +44864,29 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
     </row>
     <row r="49">
-      <c r="B49" s="5"/>
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="50">
-      <c r="B50" s="5"/>
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
       <c r="B51" s="5"/>
     </row>
     <row r="52">
@@ -47517,7 +47758,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2">
@@ -47525,7 +47766,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3">
@@ -47533,7 +47774,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4">
@@ -47541,7 +47782,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5">
@@ -47549,7 +47790,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6">
@@ -47557,7 +47798,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7">
@@ -47565,7 +47806,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8">
@@ -47581,7 +47822,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
@@ -47589,7 +47830,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11">
@@ -47597,7 +47838,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12">
@@ -47627,7 +47868,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16">
@@ -47635,7 +47876,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17">
@@ -47643,7 +47884,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18">
@@ -47651,7 +47892,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19">
@@ -47659,7 +47900,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20">
@@ -47667,7 +47908,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21">
@@ -47675,7 +47916,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22">
@@ -47683,7 +47924,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23">
@@ -47691,7 +47932,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24">
@@ -47699,7 +47940,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25">
@@ -47707,7 +47948,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26">
@@ -47721,7 +47962,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
     </row>
     <row r="28">
@@ -47729,7 +47970,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
     </row>
     <row r="29">
@@ -47737,7 +47978,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30">
@@ -47745,7 +47986,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31">
@@ -47753,7 +47994,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32">
@@ -47761,7 +48002,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
     </row>
     <row r="33">
@@ -47769,7 +48010,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
     </row>
     <row r="34">
@@ -47777,7 +48018,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
     </row>
     <row r="35">
@@ -47785,7 +48026,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
     </row>
     <row r="36">
@@ -47793,7 +48034,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="37">
@@ -47801,7 +48042,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38">
@@ -47817,7 +48058,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
     </row>
     <row r="40">
@@ -47825,7 +48066,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
     </row>
     <row r="41">
@@ -47833,7 +48074,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
     </row>
     <row r="42">
@@ -47841,7 +48082,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
     </row>
     <row r="43">
@@ -47869,7 +48110,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
     </row>
     <row r="47">
@@ -47877,7 +48118,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
     </row>
     <row r="48">
@@ -47885,16 +48126,29 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
     </row>
     <row r="49">
-      <c r="B49" s="5"/>
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="50">
-      <c r="B50" s="5"/>
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
       <c r="B51" s="5"/>
     </row>
     <row r="52">
@@ -50766,7 +51020,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2">
@@ -50774,7 +51028,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3">
@@ -50782,7 +51036,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4">
@@ -50790,7 +51044,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5">
@@ -50806,7 +51060,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7">
@@ -50814,7 +51068,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8">
@@ -50830,7 +51084,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10">
@@ -50838,7 +51092,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11">
@@ -50846,7 +51100,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12">
@@ -50876,7 +51130,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
     </row>
     <row r="16">
@@ -50884,7 +51138,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17">
@@ -50892,7 +51146,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18">
@@ -50900,7 +51154,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
     </row>
     <row r="19">
@@ -50908,7 +51162,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20">
@@ -50916,7 +51170,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21">
@@ -50924,7 +51178,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
     </row>
     <row r="22">
@@ -50932,7 +51186,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23">
@@ -50940,7 +51194,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="24">
@@ -50948,7 +51202,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25">
@@ -50956,7 +51210,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
     </row>
     <row r="26">
@@ -50970,7 +51224,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
     </row>
     <row r="28">
@@ -50978,7 +51232,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="29">
@@ -50986,7 +51240,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30">
@@ -50994,7 +51248,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="31">
@@ -51002,7 +51256,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
     </row>
     <row r="32">
@@ -51010,7 +51264,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
     </row>
     <row r="33">
@@ -51018,7 +51272,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
     </row>
     <row r="34">
@@ -51026,7 +51280,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
     </row>
     <row r="35">
@@ -51034,7 +51288,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
     </row>
     <row r="36">
@@ -51042,7 +51296,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
     </row>
     <row r="37">
@@ -51050,7 +51304,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
     </row>
     <row r="38">
@@ -51058,7 +51312,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39">
@@ -51066,7 +51320,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
     </row>
     <row r="40">
@@ -51074,7 +51328,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
     </row>
     <row r="41">
@@ -51082,7 +51336,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
     </row>
     <row r="42">
@@ -51090,7 +51344,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
     </row>
     <row r="43">
@@ -51112,7 +51366,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
     </row>
     <row r="46">
@@ -51120,7 +51374,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
     </row>
     <row r="47">
@@ -51128,7 +51382,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
     </row>
     <row r="48">
@@ -51136,16 +51390,29 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
     </row>
     <row r="49">
-      <c r="B49" s="5"/>
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="50">
-      <c r="B50" s="5"/>
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
       <c r="B51" s="5"/>
     </row>
     <row r="52">
